--- a/Documents/3.系統設計(Design_Phase)/EmployeeAuthority.xlsx
+++ b/Documents/3.系統設計(Design_Phase)/EmployeeAuthority.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$145</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$158</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="223">
   <si>
     <t>表格名稱：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -788,6 +788,122 @@
   </si>
   <si>
     <t>identity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格名稱：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbo.BackEndLog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>後端操作記錄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鍵值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>型別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允許Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>說明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seqno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmpAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(4000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作業時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外鍵值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IX_BackEndLog_OpDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpDate, include(EmpAccount, IP)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -951,7 +1067,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -977,21 +1093,10 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1003,7 +1108,21 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1300,9 +1419,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G129"/>
+  <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D126" sqref="D126:F126"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -1320,34 +1441,34 @@
       <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
       <c r="E1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" ht="15" thickTop="1"/>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="G3" s="19"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="8" t="s">
@@ -1502,23 +1623,23 @@
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7">
@@ -1526,20 +1647,20 @@
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="10"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:7" ht="16.5">
       <c r="A16" s="1"/>
@@ -1548,8 +1669,8 @@
       <c r="D16" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
       <c r="G16" s="3" t="s">
         <v>186</v>
       </c>
@@ -1558,18 +1679,18 @@
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="G18" s="19"/>
+      <c r="G18" s="16"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="8" t="s">
@@ -1741,23 +1862,23 @@
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
       <c r="D29" s="10"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="17"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="12"/>
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7">
@@ -1765,20 +1886,20 @@
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
       <c r="D30" s="10"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="17"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="12"/>
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="1:7" ht="16.5">
       <c r="A32" s="1"/>
@@ -1787,8 +1908,8 @@
       <c r="D32" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="12"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="15"/>
       <c r="G32" s="3" t="s">
         <v>188</v>
       </c>
@@ -1797,18 +1918,18 @@
       <c r="A34" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
       <c r="E34" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="19" t="s">
+      <c r="F34" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="19"/>
+      <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="8" t="s">
@@ -2251,15 +2372,15 @@
       <c r="G58" s="3"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="18" t="s">
+      <c r="A59" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1"/>
@@ -2268,8 +2389,8 @@
       <c r="D60" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="E60" s="16"/>
-      <c r="F60" s="17"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="12"/>
       <c r="G60" s="3"/>
     </row>
     <row r="61" spans="1:7">
@@ -2279,8 +2400,8 @@
       <c r="D61" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="E61" s="16"/>
-      <c r="F61" s="17"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="12"/>
       <c r="G61" s="3"/>
     </row>
     <row r="62" spans="1:7">
@@ -2288,20 +2409,20 @@
       <c r="B62" s="2"/>
       <c r="C62" s="3"/>
       <c r="D62" s="10"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="17"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="12"/>
       <c r="G62" s="3"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="18" t="s">
+      <c r="A63" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
     </row>
     <row r="64" spans="1:7" ht="16.5">
       <c r="A64" s="1"/>
@@ -2310,8 +2431,8 @@
       <c r="D64" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="E64" s="11"/>
-      <c r="F64" s="12"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="15"/>
       <c r="G64" s="3" t="s">
         <v>119</v>
       </c>
@@ -2320,18 +2441,18 @@
       <c r="A66" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B66" s="19" t="s">
+      <c r="B66" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
       <c r="E66" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F66" s="19" t="s">
+      <c r="F66" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="G66" s="19"/>
+      <c r="G66" s="16"/>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="8" t="s">
@@ -2592,23 +2713,23 @@
       <c r="G80" s="3"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="18" t="s">
+      <c r="A81" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="3"/>
       <c r="D82" s="10"/>
-      <c r="E82" s="16"/>
-      <c r="F82" s="17"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="12"/>
       <c r="G82" s="3"/>
     </row>
     <row r="83" spans="1:7">
@@ -2616,20 +2737,20 @@
       <c r="B83" s="2"/>
       <c r="C83" s="3"/>
       <c r="D83" s="10"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="17"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="12"/>
       <c r="G83" s="3"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="18" t="s">
+      <c r="A84" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="B84" s="18"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
     </row>
     <row r="85" spans="1:7" ht="16.5">
       <c r="A85" s="1"/>
@@ -2638,8 +2759,8 @@
       <c r="D85" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="E85" s="11"/>
-      <c r="F85" s="12"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="15"/>
       <c r="G85" s="3" t="s">
         <v>190</v>
       </c>
@@ -2651,8 +2772,8 @@
       <c r="D86" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="E86" s="11"/>
-      <c r="F86" s="12"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="15"/>
       <c r="G86" s="3" t="s">
         <v>192</v>
       </c>
@@ -2661,18 +2782,18 @@
       <c r="A88" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B88" s="19" t="s">
+      <c r="B88" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
       <c r="E88" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F88" s="19" t="s">
+      <c r="F88" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="G88" s="19"/>
+      <c r="G88" s="16"/>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="8" t="s">
@@ -3060,15 +3181,15 @@
       <c r="G107" s="3"/>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="18" t="s">
+      <c r="A108" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B108" s="18"/>
-      <c r="C108" s="18"/>
-      <c r="D108" s="18"/>
-      <c r="E108" s="18"/>
-      <c r="F108" s="18"/>
-      <c r="G108" s="18"/>
+      <c r="B108" s="13"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13"/>
+      <c r="G108" s="13"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="1"/>
@@ -3077,8 +3198,8 @@
       <c r="D109" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E109" s="16"/>
-      <c r="F109" s="17"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="12"/>
       <c r="G109" s="3"/>
     </row>
     <row r="110" spans="1:7">
@@ -3088,8 +3209,8 @@
       <c r="D110" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="E110" s="16"/>
-      <c r="F110" s="17"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="12"/>
       <c r="G110" s="3"/>
     </row>
     <row r="111" spans="1:7">
@@ -3097,64 +3218,68 @@
       <c r="B111" s="2"/>
       <c r="C111" s="3"/>
       <c r="D111" s="10"/>
-      <c r="E111" s="16"/>
-      <c r="F111" s="17"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="12"/>
       <c r="G111" s="3"/>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="18" t="s">
+      <c r="A112" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="B112" s="18"/>
-      <c r="C112" s="18"/>
-      <c r="D112" s="18"/>
-      <c r="E112" s="18"/>
-      <c r="F112" s="18"/>
-      <c r="G112" s="18"/>
+      <c r="B112" s="13"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="13"/>
+      <c r="G112" s="13"/>
     </row>
     <row r="113" spans="1:7" ht="16.5">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="3"/>
       <c r="D113" s="10"/>
-      <c r="E113" s="11"/>
-      <c r="F113" s="12"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="15"/>
       <c r="G113" s="3"/>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B115" s="13"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="15"/>
+        <v>194</v>
+      </c>
+      <c r="B115" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
       <c r="E115" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F115" s="13"/>
-      <c r="G115" s="15"/>
+        <v>17</v>
+      </c>
+      <c r="F115" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="G115" s="16"/>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E116" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F116" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G116" s="6" t="s">
-        <v>7</v>
+      <c r="A116" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="F116" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G116" s="9" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3162,22 +3287,38 @@
         <v>1</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
-      <c r="G117" s="3"/>
+        <v>204</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="1">
         <v>2</v>
       </c>
       <c r="B118" s="2"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
+      <c r="C118" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>210</v>
+      </c>
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
     </row>
@@ -3186,9 +3327,15 @@
         <v>3</v>
       </c>
       <c r="B119" s="2"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
+      <c r="C119" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
     </row>
@@ -3197,9 +3344,15 @@
         <v>4</v>
       </c>
       <c r="B120" s="2"/>
-      <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
+      <c r="C120" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>215</v>
+      </c>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
     </row>
@@ -3208,136 +3361,264 @@
         <v>5</v>
       </c>
       <c r="B121" s="2"/>
-      <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
+      <c r="C121" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>218</v>
+      </c>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="1">
-        <v>6</v>
-      </c>
-      <c r="B122" s="2"/>
-      <c r="C122" s="3"/>
-      <c r="D122" s="3"/>
-      <c r="E122" s="3"/>
-      <c r="F122" s="3"/>
-      <c r="G122" s="3"/>
+      <c r="A122" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="B122" s="13"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="13"/>
+      <c r="F122" s="13"/>
+      <c r="G122" s="13"/>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="1">
-        <v>7</v>
-      </c>
+      <c r="A123" s="1"/>
       <c r="B123" s="2"/>
       <c r="C123" s="3"/>
-      <c r="D123" s="3"/>
-      <c r="E123" s="3"/>
-      <c r="F123" s="3"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="12"/>
       <c r="G123" s="3"/>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="1">
-        <v>8</v>
-      </c>
+      <c r="A124" s="1"/>
       <c r="B124" s="2"/>
       <c r="C124" s="3"/>
-      <c r="D124" s="3"/>
-      <c r="E124" s="3"/>
-      <c r="F124" s="3"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="12"/>
       <c r="G124" s="3"/>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B125" s="18"/>
-      <c r="C125" s="18"/>
-      <c r="D125" s="18"/>
-      <c r="E125" s="18"/>
-      <c r="F125" s="18"/>
-      <c r="G125" s="18"/>
-    </row>
-    <row r="126" spans="1:7">
+      <c r="A125" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B125" s="13"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="13"/>
+      <c r="F125" s="13"/>
+      <c r="G125" s="13"/>
+    </row>
+    <row r="126" spans="1:7" ht="16.5">
       <c r="A126" s="1"/>
       <c r="B126" s="2"/>
       <c r="C126" s="3"/>
-      <c r="D126" s="10"/>
-      <c r="E126" s="16"/>
-      <c r="F126" s="17"/>
-      <c r="G126" s="3"/>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="A127" s="1"/>
-      <c r="B127" s="2"/>
-      <c r="C127" s="3"/>
-      <c r="D127" s="10"/>
-      <c r="E127" s="16"/>
-      <c r="F127" s="17"/>
-      <c r="G127" s="3"/>
+      <c r="D126" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="E126" s="14"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="3" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="18" t="s">
+      <c r="A128" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128" s="18"/>
+      <c r="C128" s="19"/>
+      <c r="D128" s="20"/>
+      <c r="E128" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F128" s="18"/>
+      <c r="G128" s="20"/>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="1">
+        <v>1</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="1">
+        <v>2</v>
+      </c>
+      <c r="B131" s="2"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="1">
+        <v>3</v>
+      </c>
+      <c r="B132" s="2"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="3"/>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="1">
+        <v>4</v>
+      </c>
+      <c r="B133" s="2"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="3"/>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="1">
+        <v>5</v>
+      </c>
+      <c r="B134" s="2"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="1">
+        <v>6</v>
+      </c>
+      <c r="B135" s="2"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="1">
+        <v>7</v>
+      </c>
+      <c r="B136" s="2"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="3"/>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="1">
+        <v>8</v>
+      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B138" s="13"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="13"/>
+      <c r="E138" s="13"/>
+      <c r="F138" s="13"/>
+      <c r="G138" s="13"/>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="1"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="10"/>
+      <c r="E139" s="11"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="3"/>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="1"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="10"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="12"/>
+      <c r="G140" s="3"/>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B128" s="18"/>
-      <c r="C128" s="18"/>
-      <c r="D128" s="18"/>
-      <c r="E128" s="18"/>
-      <c r="F128" s="18"/>
-      <c r="G128" s="18"/>
-    </row>
-    <row r="129" spans="1:7" ht="16.5">
-      <c r="A129" s="1"/>
-      <c r="B129" s="2"/>
-      <c r="C129" s="3"/>
-      <c r="D129" s="10"/>
-      <c r="E129" s="11"/>
-      <c r="F129" s="12"/>
-      <c r="G129" s="3"/>
+      <c r="B141" s="13"/>
+      <c r="C141" s="13"/>
+      <c r="D141" s="13"/>
+      <c r="E141" s="13"/>
+      <c r="F141" s="13"/>
+      <c r="G141" s="13"/>
+    </row>
+    <row r="142" spans="1:7" ht="16.5">
+      <c r="A142" s="1"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="10"/>
+      <c r="E142" s="14"/>
+      <c r="F142" s="15"/>
+      <c r="G142" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="D109:F109"/>
-    <mergeCell ref="D110:F110"/>
-    <mergeCell ref="D111:F111"/>
-    <mergeCell ref="A112:G112"/>
-    <mergeCell ref="D113:F113"/>
-    <mergeCell ref="A84:G84"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="A108:G108"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="A81:G81"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="D13:F13"/>
+  <mergeCells count="54">
+    <mergeCell ref="A125:G125"/>
+    <mergeCell ref="D126:F126"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="F115:G115"/>
+    <mergeCell ref="A122:G122"/>
+    <mergeCell ref="D123:F123"/>
+    <mergeCell ref="D124:F124"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D129:F129"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="F115:G115"/>
-    <mergeCell ref="D127:F127"/>
-    <mergeCell ref="A125:G125"/>
-    <mergeCell ref="D126:F126"/>
-    <mergeCell ref="A128:G128"/>
+    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="B128:D128"/>
+    <mergeCell ref="F128:G128"/>
+    <mergeCell ref="D140:F140"/>
+    <mergeCell ref="A138:G138"/>
+    <mergeCell ref="D139:F139"/>
+    <mergeCell ref="A141:G141"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="A59:G59"/>
@@ -3345,6 +3626,37 @@
     <mergeCell ref="D61:F61"/>
     <mergeCell ref="D62:F62"/>
     <mergeCell ref="A63:G63"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="A81:G81"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="A84:G84"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="A108:G108"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="D109:F109"/>
+    <mergeCell ref="D110:F110"/>
+    <mergeCell ref="D111:F111"/>
+    <mergeCell ref="A112:G112"/>
+    <mergeCell ref="D113:F113"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Documents/3.系統設計(Design_Phase)/EmployeeAuthority.xlsx
+++ b/Documents/3.系統設計(Design_Phase)/EmployeeAuthority.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$158</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$162</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="233">
   <si>
     <t>表格名稱：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -904,6 +904,46 @@
   </si>
   <si>
     <t>OpDate, include(EmpAccount, IP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次登入時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次登入IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上次登入時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上次登入IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThisLoginTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThisLoginIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastLoginTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastLoginIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1096,21 +1136,21 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1419,10 +1459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G142"/>
+  <dimension ref="A1:G146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D126" sqref="D126:F126"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1457,18 +1497,18 @@
       <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
       <c r="E3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="G3" s="16"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="8" t="s">
@@ -1623,54 +1663,54 @@
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7" ht="16.5">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13"/>
       <c r="G16" s="3" t="s">
         <v>186</v>
       </c>
@@ -1679,18 +1719,18 @@
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="G18" s="16"/>
+      <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="8" t="s">
@@ -1862,54 +1902,54 @@
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="12"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="16"/>
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="12"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="16"/>
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7" ht="16.5">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="15"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="13"/>
       <c r="G32" s="3" t="s">
         <v>188</v>
       </c>
@@ -1918,18 +1958,18 @@
       <c r="A34" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
       <c r="E34" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="16" t="s">
+      <c r="F34" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="16"/>
+      <c r="G34" s="14"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="8" t="s">
@@ -2372,588 +2412,572 @@
       <c r="G58" s="3"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="1">
+        <v>24</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
+        <v>25</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
+        <v>26</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>27</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="1"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="E60" s="11"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="3"/>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="1"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E61" s="11"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="3"/>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="1"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="3"/>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-    </row>
-    <row r="64" spans="1:7" ht="16.5">
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="3"/>
-      <c r="D64" s="10" t="s">
+      <c r="D64" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E64" s="15"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="3"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E65" s="15"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="3"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="3"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+    </row>
+    <row r="68" spans="1:7" ht="16.5">
+      <c r="A68" s="1"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E64" s="14"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="3" t="s">
+      <c r="E68" s="12"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="5" t="s">
+    <row r="70" spans="1:7">
+      <c r="A70" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B70" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="5" t="s">
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F66" s="16" t="s">
+      <c r="F70" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="G66" s="16"/>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="8" t="s">
+      <c r="G70" s="14"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B71" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C71" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D71" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E71" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F71" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G67" s="8" t="s">
+      <c r="G71" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="1">
-        <v>1</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="1">
-        <v>2</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="1">
-        <v>3</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="1">
-        <v>4</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1">
-        <v>5</v>
-      </c>
-      <c r="B72" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="C72" s="3" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>182</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>70</v>
+        <v>193</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="3" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>70</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="3" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="3" t="s">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>73</v>
+        <v>148</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="3" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="3" t="s">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="3" t="s">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="13" t="s">
+      <c r="A81" s="1">
+        <v>10</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="1">
+        <v>11</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="1">
+        <v>12</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="1">
+        <v>13</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="1"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="3"/>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="1"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="3"/>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
-    </row>
-    <row r="85" spans="1:7" ht="16.5">
-      <c r="A85" s="1"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="E85" s="14"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="16.5">
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="3"/>
-      <c r="D86" s="10" t="s">
+      <c r="D86" s="11"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="3"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="1"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="3"/>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+    </row>
+    <row r="89" spans="1:7" ht="16.5">
+      <c r="A89" s="1"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="E89" s="12"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="16.5">
+      <c r="A90" s="1"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="E86" s="14"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="3" t="s">
+      <c r="E90" s="12"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="5" t="s">
+    <row r="92" spans="1:7">
+      <c r="A92" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B88" s="16" t="s">
+      <c r="B92" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="C88" s="16"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="5" t="s">
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F88" s="16" t="s">
+      <c r="F92" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="G88" s="16"/>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="8" t="s">
+      <c r="G92" s="14"/>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B93" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C93" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D89" s="8" t="s">
+      <c r="D93" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E89" s="8" t="s">
+      <c r="E93" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F89" s="8" t="s">
+      <c r="F93" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G89" s="8" t="s">
+      <c r="G93" s="8" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="1">
-        <v>1</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G90" s="3"/>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="1">
-        <v>2</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G91" s="3"/>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="1">
-        <v>3</v>
-      </c>
-      <c r="B92" s="2"/>
-      <c r="C92" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="1">
-        <v>4</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1">
-        <v>5</v>
-      </c>
-      <c r="B94" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="C94" s="3" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="G94" s="3"/>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1">
-        <v>6</v>
-      </c>
-      <c r="B95" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="C95" s="3" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="G95" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="G95" s="3"/>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>68</v>
@@ -2967,14 +2991,14 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="3" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>68</v>
@@ -2988,14 +3012,14 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="3" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>68</v>
@@ -3009,14 +3033,14 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="3" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>68</v>
@@ -3030,14 +3054,14 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="3" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>68</v>
@@ -3051,14 +3075,14 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="3" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>68</v>
@@ -3072,14 +3096,14 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="3" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>68</v>
@@ -3093,14 +3117,14 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>68</v>
@@ -3114,405 +3138,445 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="3" t="s">
-        <v>72</v>
+        <v>172</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>73</v>
+        <v>173</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="3" t="s">
-        <v>75</v>
+        <v>174</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="3" t="s">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>82</v>
+        <v>177</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1">
+        <v>15</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1">
+        <v>16</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1">
+        <v>17</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1">
+        <v>18</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D111" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E107" s="3" t="s">
+      <c r="E111" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="A108" s="13" t="s">
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B108" s="13"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="13"/>
-      <c r="F108" s="13"/>
-      <c r="G108" s="13"/>
-    </row>
-    <row r="109" spans="1:7">
-      <c r="A109" s="1"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="E109" s="11"/>
-      <c r="F109" s="12"/>
-      <c r="G109" s="3"/>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110" s="1"/>
-      <c r="B110" s="2"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E110" s="11"/>
-      <c r="F110" s="12"/>
-      <c r="G110" s="3"/>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111" s="1"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="3"/>
-      <c r="D111" s="10"/>
-      <c r="E111" s="11"/>
-      <c r="F111" s="12"/>
-      <c r="G111" s="3"/>
-    </row>
-    <row r="112" spans="1:7">
-      <c r="A112" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="B112" s="13"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="13"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="13"/>
-    </row>
-    <row r="113" spans="1:7" ht="16.5">
+      <c r="B112" s="10"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="3"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="15"/>
+      <c r="D113" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E113" s="15"/>
+      <c r="F113" s="16"/>
       <c r="G113" s="3"/>
     </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="1"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E114" s="15"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="3"/>
+    </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="5" t="s">
+      <c r="A115" s="1"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="16"/>
+      <c r="G115" s="3"/>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116" s="10"/>
+      <c r="C116" s="10"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
+    </row>
+    <row r="117" spans="1:7" ht="16.5">
+      <c r="A117" s="1"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="13"/>
+      <c r="G117" s="3"/>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B115" s="16" t="s">
+      <c r="B119" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="C115" s="16"/>
-      <c r="D115" s="16"/>
-      <c r="E115" s="5" t="s">
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F115" s="16" t="s">
+      <c r="F119" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="G115" s="16"/>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="A116" s="9" t="s">
+      <c r="G119" s="14"/>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="B116" s="9" t="s">
+      <c r="B120" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C116" s="9" t="s">
+      <c r="C120" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="D116" s="9" t="s">
+      <c r="D120" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="E116" s="9" t="s">
+      <c r="E120" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="F116" s="9" t="s">
+      <c r="F120" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="G116" s="9" t="s">
+      <c r="G120" s="9" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117" s="1">
-        <v>1</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G117" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="A118" s="1">
-        <v>2</v>
-      </c>
-      <c r="B118" s="2"/>
-      <c r="C118" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F118" s="3"/>
-      <c r="G118" s="3"/>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="A119" s="1">
-        <v>3</v>
-      </c>
-      <c r="B119" s="2"/>
-      <c r="C119" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120" s="1">
-        <v>4</v>
-      </c>
-      <c r="B120" s="2"/>
-      <c r="C120" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="1">
+        <v>1</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="1">
+        <v>2</v>
+      </c>
+      <c r="B122" s="2"/>
+      <c r="C122" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="1">
+        <v>3</v>
+      </c>
+      <c r="B123" s="2"/>
+      <c r="C123" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="1">
+        <v>4</v>
+      </c>
+      <c r="B124" s="2"/>
+      <c r="C124" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="1">
         <v>5</v>
       </c>
-      <c r="B121" s="2"/>
-      <c r="C121" s="3" t="s">
+      <c r="B125" s="2"/>
+      <c r="C125" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="D125" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="E121" s="3" t="s">
+      <c r="E125" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="F121" s="3"/>
-      <c r="G121" s="3"/>
-    </row>
-    <row r="122" spans="1:7">
-      <c r="A122" s="13" t="s">
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B122" s="13"/>
-      <c r="C122" s="13"/>
-      <c r="D122" s="13"/>
-      <c r="E122" s="13"/>
-      <c r="F122" s="13"/>
-      <c r="G122" s="13"/>
-    </row>
-    <row r="123" spans="1:7">
-      <c r="A123" s="1"/>
-      <c r="B123" s="2"/>
-      <c r="C123" s="3"/>
-      <c r="D123" s="10"/>
-      <c r="E123" s="11"/>
-      <c r="F123" s="12"/>
-      <c r="G123" s="3"/>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="A124" s="1"/>
-      <c r="B124" s="2"/>
-      <c r="C124" s="3"/>
-      <c r="D124" s="10"/>
-      <c r="E124" s="11"/>
-      <c r="F124" s="12"/>
-      <c r="G124" s="3"/>
-    </row>
-    <row r="125" spans="1:7">
-      <c r="A125" s="13" t="s">
+      <c r="B126" s="10"/>
+      <c r="C126" s="10"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="1"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="16"/>
+      <c r="G127" s="3"/>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="1"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="15"/>
+      <c r="F128" s="16"/>
+      <c r="G128" s="3"/>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="B125" s="13"/>
-      <c r="C125" s="13"/>
-      <c r="D125" s="13"/>
-      <c r="E125" s="13"/>
-      <c r="F125" s="13"/>
-      <c r="G125" s="13"/>
-    </row>
-    <row r="126" spans="1:7" ht="16.5">
-      <c r="A126" s="1"/>
-      <c r="B126" s="2"/>
-      <c r="C126" s="3"/>
-      <c r="D126" s="10" t="s">
+      <c r="B129" s="10"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="10"/>
+    </row>
+    <row r="130" spans="1:7" ht="16.5">
+      <c r="A130" s="1"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="E126" s="14"/>
-      <c r="F126" s="15"/>
-      <c r="G126" s="3" t="s">
+      <c r="E130" s="12"/>
+      <c r="F130" s="13"/>
+      <c r="G130" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
-      <c r="A128" s="5" t="s">
+    <row r="132" spans="1:7">
+      <c r="A132" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B128" s="18"/>
-      <c r="C128" s="19"/>
-      <c r="D128" s="20"/>
-      <c r="E128" s="5" t="s">
+      <c r="B132" s="18"/>
+      <c r="C132" s="19"/>
+      <c r="D132" s="20"/>
+      <c r="E132" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F128" s="18"/>
-      <c r="G128" s="20"/>
-    </row>
-    <row r="129" spans="1:7">
-      <c r="A129" s="6" t="s">
+      <c r="F132" s="18"/>
+      <c r="G132" s="20"/>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="B133" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C129" s="6" t="s">
+      <c r="C133" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D129" s="6" t="s">
+      <c r="D133" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E129" s="6" t="s">
+      <c r="E133" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F129" s="6" t="s">
+      <c r="F133" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G129" s="6" t="s">
+      <c r="G133" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="130" spans="1:7">
-      <c r="A130" s="1">
-        <v>1</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
-      <c r="F130" s="3"/>
-      <c r="G130" s="3"/>
-    </row>
-    <row r="131" spans="1:7">
-      <c r="A131" s="1">
-        <v>2</v>
-      </c>
-      <c r="B131" s="2"/>
-      <c r="C131" s="3"/>
-      <c r="D131" s="3"/>
-      <c r="E131" s="3"/>
-      <c r="F131" s="3"/>
-      <c r="G131" s="3"/>
-    </row>
-    <row r="132" spans="1:7">
-      <c r="A132" s="1">
-        <v>3</v>
-      </c>
-      <c r="B132" s="2"/>
-      <c r="C132" s="3"/>
-      <c r="D132" s="3"/>
-      <c r="E132" s="3"/>
-      <c r="F132" s="3"/>
-      <c r="G132" s="3"/>
-    </row>
-    <row r="133" spans="1:7">
-      <c r="A133" s="1">
-        <v>4</v>
-      </c>
-      <c r="B133" s="2"/>
-      <c r="C133" s="3"/>
-      <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
-      <c r="F133" s="3"/>
-      <c r="G133" s="3"/>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="1">
-        <v>5</v>
-      </c>
-      <c r="B134" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -3521,7 +3585,7 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" s="3"/>
@@ -3532,7 +3596,7 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" s="3"/>
@@ -3543,7 +3607,7 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="3"/>
@@ -3553,80 +3617,117 @@
       <c r="G137" s="3"/>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B138" s="13"/>
-      <c r="C138" s="13"/>
-      <c r="D138" s="13"/>
-      <c r="E138" s="13"/>
-      <c r="F138" s="13"/>
-      <c r="G138" s="13"/>
+      <c r="A138" s="1">
+        <v>5</v>
+      </c>
+      <c r="B138" s="2"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="3"/>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="1"/>
+      <c r="A139" s="1">
+        <v>6</v>
+      </c>
       <c r="B139" s="2"/>
       <c r="C139" s="3"/>
-      <c r="D139" s="10"/>
-      <c r="E139" s="11"/>
-      <c r="F139" s="12"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3"/>
       <c r="G139" s="3"/>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="1"/>
+      <c r="A140" s="1">
+        <v>7</v>
+      </c>
       <c r="B140" s="2"/>
       <c r="C140" s="3"/>
-      <c r="D140" s="10"/>
-      <c r="E140" s="11"/>
-      <c r="F140" s="12"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="3"/>
       <c r="G140" s="3"/>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" s="13" t="s">
+      <c r="A141" s="1">
+        <v>8</v>
+      </c>
+      <c r="B141" s="2"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="3"/>
+      <c r="G141" s="3"/>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B142" s="10"/>
+      <c r="C142" s="10"/>
+      <c r="D142" s="10"/>
+      <c r="E142" s="10"/>
+      <c r="F142" s="10"/>
+      <c r="G142" s="10"/>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="1"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="11"/>
+      <c r="E143" s="15"/>
+      <c r="F143" s="16"/>
+      <c r="G143" s="3"/>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="1"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="11"/>
+      <c r="E144" s="15"/>
+      <c r="F144" s="16"/>
+      <c r="G144" s="3"/>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B141" s="13"/>
-      <c r="C141" s="13"/>
-      <c r="D141" s="13"/>
-      <c r="E141" s="13"/>
-      <c r="F141" s="13"/>
-      <c r="G141" s="13"/>
-    </row>
-    <row r="142" spans="1:7" ht="16.5">
-      <c r="A142" s="1"/>
-      <c r="B142" s="2"/>
-      <c r="C142" s="3"/>
-      <c r="D142" s="10"/>
-      <c r="E142" s="14"/>
-      <c r="F142" s="15"/>
-      <c r="G142" s="3"/>
+      <c r="B145" s="10"/>
+      <c r="C145" s="10"/>
+      <c r="D145" s="10"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="10"/>
+      <c r="G145" s="10"/>
+    </row>
+    <row r="146" spans="1:7" ht="16.5">
+      <c r="A146" s="1"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="12"/>
+      <c r="F146" s="13"/>
+      <c r="G146" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A125:G125"/>
-    <mergeCell ref="D126:F126"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="F115:G115"/>
-    <mergeCell ref="A122:G122"/>
-    <mergeCell ref="D123:F123"/>
-    <mergeCell ref="D124:F124"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D142:F142"/>
-    <mergeCell ref="B128:D128"/>
-    <mergeCell ref="F128:G128"/>
-    <mergeCell ref="D140:F140"/>
-    <mergeCell ref="A138:G138"/>
-    <mergeCell ref="D139:F139"/>
-    <mergeCell ref="A141:G141"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="A63:G63"/>
-    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="D113:F113"/>
+    <mergeCell ref="D114:F114"/>
+    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="A116:G116"/>
+    <mergeCell ref="D117:F117"/>
+    <mergeCell ref="A88:G88"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="A112:G112"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="A85:G85"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="D68:F68"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="A12:G12"/>
@@ -3641,22 +3742,29 @@
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="A31:G31"/>
     <mergeCell ref="D32:F32"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="A81:G81"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="A84:G84"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="A108:G108"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="D109:F109"/>
-    <mergeCell ref="D110:F110"/>
-    <mergeCell ref="D111:F111"/>
-    <mergeCell ref="A112:G112"/>
-    <mergeCell ref="D113:F113"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D146:F146"/>
+    <mergeCell ref="B132:D132"/>
+    <mergeCell ref="F132:G132"/>
+    <mergeCell ref="D144:F144"/>
+    <mergeCell ref="A142:G142"/>
+    <mergeCell ref="D143:F143"/>
+    <mergeCell ref="A145:G145"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="A63:G63"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="A67:G67"/>
+    <mergeCell ref="A129:G129"/>
+    <mergeCell ref="D130:F130"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="A126:G126"/>
+    <mergeCell ref="D127:F127"/>
+    <mergeCell ref="D128:F128"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Documents/3.系統設計(Design_Phase)/EmployeeAuthority.xlsx
+++ b/Documents/3.系統設計(Design_Phase)/EmployeeAuthority.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="234">
   <si>
     <t>表格名稱：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -268,14 +268,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>角色代碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色代碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RoleId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -530,14 +522,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>員工角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RoleName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -546,10 +530,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>角色顯示用名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RoleDisplayName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -638,10 +618,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>員工角色後端作業授權關聯表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>可閱讀該項目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -944,6 +920,34 @@
   </si>
   <si>
     <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工身分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身分代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身分名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身分顯示用名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身分代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工身分後端作業授權關聯表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身分名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1136,21 +1140,21 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1461,8 +1465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1482,7 +1486,7 @@
         <v>13</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
@@ -1497,18 +1501,18 @@
       <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="B3" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="G3" s="14"/>
+      <c r="F3" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="8" t="s">
@@ -1550,10 +1554,10 @@
         <v>37</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1562,19 +1566,19 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>49</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1583,10 +1587,10 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>37</v>
@@ -1600,10 +1604,10 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>41</v>
@@ -1617,13 +1621,13 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1634,10 +1638,10 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>41</v>
@@ -1651,86 +1655,86 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
+      <c r="A12" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+      <c r="A15" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:7" ht="16.5">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
+      <c r="D16" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
       <c r="G16" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
+      <c r="B18" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="G18" s="14"/>
+      <c r="F18" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="G18" s="16"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="8" t="s">
@@ -1763,19 +1767,19 @@
         <v>33</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1784,19 +1788,19 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="3" t="s">
-        <v>129</v>
+        <v>229</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1805,13 +1809,13 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="3" t="s">
-        <v>132</v>
+        <v>230</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1822,10 +1826,10 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>37</v>
@@ -1839,10 +1843,10 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>41</v>
@@ -1856,13 +1860,13 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1873,10 +1877,10 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>41</v>
@@ -1890,86 +1894,86 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="E27" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
+      <c r="A28" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="16"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="12"/>
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="16"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="12"/>
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
+      <c r="A31" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="1:7" ht="16.5">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="13"/>
+      <c r="D32" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E32" s="14"/>
+      <c r="F32" s="15"/>
       <c r="G32" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
       <c r="E34" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="14"/>
+      <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="8" t="s">
@@ -2011,10 +2015,10 @@
         <v>38</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2032,10 +2036,10 @@
         <v>42</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2053,7 +2057,7 @@
         <v>45</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>46</v>
@@ -2133,10 +2137,10 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>38</v>
@@ -2150,19 +2154,19 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D44" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="F44" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2171,10 +2175,10 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>42</v>
@@ -2188,13 +2192,13 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -2205,10 +2209,10 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>42</v>
@@ -2222,13 +2226,13 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="E48" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -2239,13 +2243,13 @@
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -2256,13 +2260,13 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -2273,10 +2277,10 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>42</v>
@@ -2290,19 +2294,19 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E52" s="3" t="s">
+      <c r="G52" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2311,13 +2315,13 @@
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -2328,19 +2332,19 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G54" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2349,13 +2353,13 @@
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
@@ -2366,13 +2370,13 @@
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -2383,13 +2387,13 @@
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
@@ -2400,13 +2404,13 @@
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
@@ -2417,13 +2421,13 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -2434,13 +2438,13 @@
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -2451,13 +2455,13 @@
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
@@ -2468,99 +2472,99 @@
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>232</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
+      <c r="A63" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="3"/>
-      <c r="D64" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="E64" s="15"/>
-      <c r="F64" s="16"/>
+      <c r="D64" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E64" s="11"/>
+      <c r="F64" s="12"/>
       <c r="G64" s="3"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="3"/>
-      <c r="D65" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E65" s="15"/>
-      <c r="F65" s="16"/>
+      <c r="D65" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E65" s="11"/>
+      <c r="F65" s="12"/>
       <c r="G65" s="3"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="3"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="16"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="12"/>
       <c r="G66" s="3"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
+      <c r="A67" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
     </row>
     <row r="68" spans="1:7" ht="16.5">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="3"/>
-      <c r="D68" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E68" s="12"/>
-      <c r="F68" s="13"/>
+      <c r="D68" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E68" s="14"/>
+      <c r="F68" s="15"/>
       <c r="G68" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B70" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
+      <c r="B70" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
       <c r="E70" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F70" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="G70" s="14"/>
+      <c r="F70" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G70" s="16"/>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="8" t="s">
@@ -2593,19 +2597,19 @@
         <v>33</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2614,10 +2618,10 @@
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>37</v>
@@ -2631,13 +2635,13 @@
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -2648,13 +2652,13 @@
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
@@ -2665,19 +2669,19 @@
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E76" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G76" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2686,13 +2690,13 @@
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
@@ -2703,10 +2707,10 @@
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>37</v>
@@ -2720,19 +2724,19 @@
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E79" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G79" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2741,10 +2745,10 @@
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>53</v>
@@ -2758,10 +2762,10 @@
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>41</v>
@@ -2775,13 +2779,13 @@
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D82" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="E82" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
@@ -2792,10 +2796,10 @@
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>41</v>
@@ -2809,99 +2813,99 @@
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D84" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="E84" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
+      <c r="A85" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="3"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="16"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="12"/>
       <c r="G86" s="3"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
       <c r="C87" s="3"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="16"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="12"/>
       <c r="G87" s="3"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B88" s="10"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
+      <c r="A88" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
     </row>
     <row r="89" spans="1:7" ht="16.5">
       <c r="A89" s="1"/>
       <c r="B89" s="2"/>
       <c r="C89" s="3"/>
-      <c r="D89" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="E89" s="12"/>
-      <c r="F89" s="13"/>
+      <c r="D89" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E89" s="14"/>
+      <c r="F89" s="15"/>
       <c r="G89" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="16.5">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="3"/>
-      <c r="D90" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="E90" s="12"/>
-      <c r="F90" s="13"/>
+      <c r="D90" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E90" s="14"/>
+      <c r="F90" s="15"/>
       <c r="G90" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B92" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
+      <c r="B92" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
       <c r="E92" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F92" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="G92" s="14"/>
+      <c r="F92" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="G92" s="16"/>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="8" t="s">
@@ -2934,16 +2938,16 @@
         <v>33</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>129</v>
+        <v>233</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G94" s="3"/>
     </row>
@@ -2955,16 +2959,16 @@
         <v>33</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G95" s="3"/>
     </row>
@@ -2974,19 +2978,19 @@
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E96" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G96" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2995,19 +2999,19 @@
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E97" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G97" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3016,19 +3020,19 @@
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E98" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G98" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3037,19 +3041,19 @@
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E99" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G99" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3058,19 +3062,19 @@
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E100" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G100" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3079,19 +3083,19 @@
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E101" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G101" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3100,19 +3104,19 @@
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E102" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G102" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3121,19 +3125,19 @@
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E103" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G103" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3142,19 +3146,19 @@
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E104" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G104" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3163,19 +3167,19 @@
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E105" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G105" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3184,19 +3188,19 @@
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F106" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D106" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E106" s="3" t="s">
+      <c r="G106" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3205,19 +3209,19 @@
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E107" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G107" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3226,10 +3230,10 @@
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>41</v>
@@ -3243,13 +3247,13 @@
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D109" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="E109" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
@@ -3260,10 +3264,10 @@
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>41</v>
@@ -3277,117 +3281,117 @@
       </c>
       <c r="B111" s="2"/>
       <c r="C111" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D111" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D111" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="E111" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B112" s="10"/>
-      <c r="C112" s="10"/>
-      <c r="D112" s="10"/>
-      <c r="E112" s="10"/>
-      <c r="F112" s="10"/>
-      <c r="G112" s="10"/>
+      <c r="A112" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B112" s="13"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="13"/>
+      <c r="G112" s="13"/>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="3"/>
-      <c r="D113" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="E113" s="15"/>
-      <c r="F113" s="16"/>
+      <c r="D113" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E113" s="11"/>
+      <c r="F113" s="12"/>
       <c r="G113" s="3"/>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="3"/>
-      <c r="D114" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="E114" s="15"/>
-      <c r="F114" s="16"/>
+      <c r="D114" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E114" s="11"/>
+      <c r="F114" s="12"/>
       <c r="G114" s="3"/>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
       <c r="C115" s="3"/>
-      <c r="D115" s="11"/>
-      <c r="E115" s="15"/>
-      <c r="F115" s="16"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="12"/>
       <c r="G115" s="3"/>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B116" s="10"/>
-      <c r="C116" s="10"/>
-      <c r="D116" s="10"/>
-      <c r="E116" s="10"/>
-      <c r="F116" s="10"/>
-      <c r="G116" s="10"/>
+      <c r="A116" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B116" s="13"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="13"/>
+      <c r="F116" s="13"/>
+      <c r="G116" s="13"/>
     </row>
     <row r="117" spans="1:7" ht="16.5">
       <c r="A117" s="1"/>
       <c r="B117" s="2"/>
       <c r="C117" s="3"/>
-      <c r="D117" s="11"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="13"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="15"/>
       <c r="G117" s="3"/>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B119" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
+        <v>188</v>
+      </c>
+      <c r="B119" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C119" s="16"/>
+      <c r="D119" s="16"/>
       <c r="E119" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F119" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="G119" s="14"/>
+      <c r="F119" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="G119" s="16"/>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="G120" s="9" t="s">
         <v>197</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="D120" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="E120" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="F120" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="G120" s="9" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3395,22 +3399,22 @@
         <v>1</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3419,13 +3423,13 @@
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
@@ -3436,13 +3440,13 @@
       </c>
       <c r="B123" s="2"/>
       <c r="C123" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
@@ -3453,13 +3457,13 @@
       </c>
       <c r="B124" s="2"/>
       <c r="C124" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3470,68 +3474,68 @@
       </c>
       <c r="B125" s="2"/>
       <c r="C125" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="B126" s="10"/>
-      <c r="C126" s="10"/>
-      <c r="D126" s="10"/>
-      <c r="E126" s="10"/>
-      <c r="F126" s="10"/>
-      <c r="G126" s="10"/>
+      <c r="A126" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B126" s="13"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="13"/>
+      <c r="G126" s="13"/>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="1"/>
       <c r="B127" s="2"/>
       <c r="C127" s="3"/>
-      <c r="D127" s="11"/>
-      <c r="E127" s="15"/>
-      <c r="F127" s="16"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="12"/>
       <c r="G127" s="3"/>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
       <c r="C128" s="3"/>
-      <c r="D128" s="11"/>
-      <c r="E128" s="15"/>
-      <c r="F128" s="16"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="12"/>
       <c r="G128" s="3"/>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="B129" s="10"/>
-      <c r="C129" s="10"/>
-      <c r="D129" s="10"/>
-      <c r="E129" s="10"/>
-      <c r="F129" s="10"/>
-      <c r="G129" s="10"/>
+      <c r="A129" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="B129" s="13"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="13"/>
+      <c r="F129" s="13"/>
+      <c r="G129" s="13"/>
     </row>
     <row r="130" spans="1:7" ht="16.5">
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
       <c r="C130" s="3"/>
-      <c r="D130" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="E130" s="12"/>
-      <c r="F130" s="13"/>
+      <c r="D130" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="E130" s="14"/>
+      <c r="F130" s="15"/>
       <c r="G130" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3661,87 +3665,63 @@
       <c r="G141" s="3"/>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="10" t="s">
+      <c r="A142" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B142" s="10"/>
-      <c r="C142" s="10"/>
-      <c r="D142" s="10"/>
-      <c r="E142" s="10"/>
-      <c r="F142" s="10"/>
-      <c r="G142" s="10"/>
+      <c r="B142" s="13"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="13"/>
+      <c r="E142" s="13"/>
+      <c r="F142" s="13"/>
+      <c r="G142" s="13"/>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
       <c r="C143" s="3"/>
-      <c r="D143" s="11"/>
-      <c r="E143" s="15"/>
-      <c r="F143" s="16"/>
+      <c r="D143" s="10"/>
+      <c r="E143" s="11"/>
+      <c r="F143" s="12"/>
       <c r="G143" s="3"/>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
       <c r="C144" s="3"/>
-      <c r="D144" s="11"/>
-      <c r="E144" s="15"/>
-      <c r="F144" s="16"/>
+      <c r="D144" s="10"/>
+      <c r="E144" s="11"/>
+      <c r="F144" s="12"/>
       <c r="G144" s="3"/>
     </row>
     <row r="145" spans="1:7">
-      <c r="A145" s="10" t="s">
+      <c r="A145" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B145" s="10"/>
-      <c r="C145" s="10"/>
-      <c r="D145" s="10"/>
-      <c r="E145" s="10"/>
-      <c r="F145" s="10"/>
-      <c r="G145" s="10"/>
+      <c r="B145" s="13"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="13"/>
+      <c r="E145" s="13"/>
+      <c r="F145" s="13"/>
+      <c r="G145" s="13"/>
     </row>
     <row r="146" spans="1:7" ht="16.5">
       <c r="A146" s="1"/>
       <c r="B146" s="2"/>
       <c r="C146" s="3"/>
-      <c r="D146" s="11"/>
-      <c r="E146" s="12"/>
-      <c r="F146" s="13"/>
+      <c r="D146" s="10"/>
+      <c r="E146" s="14"/>
+      <c r="F146" s="15"/>
       <c r="G146" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="D113:F113"/>
-    <mergeCell ref="D114:F114"/>
-    <mergeCell ref="D115:F115"/>
-    <mergeCell ref="A116:G116"/>
-    <mergeCell ref="D117:F117"/>
-    <mergeCell ref="A88:G88"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="A112:G112"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="A85:G85"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A129:G129"/>
+    <mergeCell ref="D130:F130"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="A126:G126"/>
+    <mergeCell ref="D127:F127"/>
+    <mergeCell ref="D128:F128"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="D146:F146"/>
@@ -3758,13 +3738,37 @@
     <mergeCell ref="D65:F65"/>
     <mergeCell ref="D66:F66"/>
     <mergeCell ref="A67:G67"/>
-    <mergeCell ref="A129:G129"/>
-    <mergeCell ref="D130:F130"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="A126:G126"/>
-    <mergeCell ref="D127:F127"/>
-    <mergeCell ref="D128:F128"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="A85:G85"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="A88:G88"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="A112:G112"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D113:F113"/>
+    <mergeCell ref="D114:F114"/>
+    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="A116:G116"/>
+    <mergeCell ref="D117:F117"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Documents/3.系統設計(Design_Phase)/EmployeeAuthority.xlsx
+++ b/Documents/3.系統設計(Design_Phase)/EmployeeAuthority.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$162</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$163</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="236">
   <si>
     <t>表格名稱：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -948,6 +948,14 @@
   </si>
   <si>
     <t>身分名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文標題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnglishSubject</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1140,21 +1148,21 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1463,10 +1471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G146"/>
+  <dimension ref="A1:G147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A62" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1501,18 +1509,18 @@
       <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
       <c r="E3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="G3" s="16"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="8" t="s">
@@ -1667,54 +1675,54 @@
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7" ht="16.5">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13"/>
       <c r="G16" s="3" t="s">
         <v>180</v>
       </c>
@@ -1723,18 +1731,18 @@
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="G18" s="16"/>
+      <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="8" t="s">
@@ -1906,54 +1914,54 @@
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="12"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="16"/>
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="12"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="16"/>
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7" ht="16.5">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="15"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="13"/>
       <c r="G32" s="3" t="s">
         <v>182</v>
       </c>
@@ -1962,18 +1970,18 @@
       <c r="A34" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
       <c r="E34" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="16" t="s">
+      <c r="F34" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="16"/>
+      <c r="G34" s="14"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="8" t="s">
@@ -2484,67 +2492,67 @@
       <c r="G62" s="3"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="3"/>
-      <c r="D64" s="10" t="s">
+      <c r="D64" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E64" s="11"/>
-      <c r="F64" s="12"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="16"/>
       <c r="G64" s="3"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="3"/>
-      <c r="D65" s="10" t="s">
+      <c r="D65" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E65" s="11"/>
-      <c r="F65" s="12"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="16"/>
       <c r="G65" s="3"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="3"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="12"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="16"/>
       <c r="G66" s="3"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
     </row>
     <row r="68" spans="1:7" ht="16.5">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="3"/>
-      <c r="D68" s="10" t="s">
+      <c r="D68" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E68" s="14"/>
-      <c r="F68" s="15"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="13"/>
       <c r="G68" s="3" t="s">
         <v>117</v>
       </c>
@@ -2553,18 +2561,18 @@
       <c r="A70" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B70" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
       <c r="E70" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F70" s="16" t="s">
+      <c r="F70" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="G70" s="16"/>
+      <c r="G70" s="14"/>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="8" t="s">
@@ -2825,147 +2833,143 @@
       <c r="G84" s="3"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="13" t="s">
+      <c r="A85" s="1">
+        <v>14</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="13"/>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="1"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="3"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
       <c r="D86" s="10"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="3"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
       <c r="C87" s="3"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="12"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="16"/>
       <c r="G87" s="3"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="13" t="s">
+      <c r="A88" s="1"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="3"/>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
-    </row>
-    <row r="89" spans="1:7" ht="16.5">
-      <c r="A89" s="1"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="E89" s="14"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="3" t="s">
-        <v>184</v>
-      </c>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
     </row>
     <row r="90" spans="1:7" ht="16.5">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="3"/>
-      <c r="D90" s="10" t="s">
+      <c r="D90" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E90" s="12"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="16.5">
+      <c r="A91" s="1"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="E90" s="14"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="3" t="s">
+      <c r="E91" s="12"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="5" t="s">
+    <row r="93" spans="1:7">
+      <c r="A93" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B92" s="16" t="s">
+      <c r="B93" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="5" t="s">
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F92" s="16" t="s">
+      <c r="F93" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="G92" s="16"/>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="8" t="s">
+      <c r="G93" s="14"/>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B94" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C94" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D93" s="8" t="s">
+      <c r="D94" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E93" s="8" t="s">
+      <c r="E94" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F93" s="8" t="s">
+      <c r="F94" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G93" s="8" t="s">
+      <c r="G94" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="1">
-        <v>1</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G94" s="3"/>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>133</v>
+        <v>233</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>176</v>
@@ -2974,35 +2978,35 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1">
-        <v>3</v>
-      </c>
-      <c r="B96" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="C96" s="3" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="G96" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="G96" s="3"/>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>66</v>
@@ -3016,14 +3020,14 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>66</v>
@@ -3037,14 +3041,14 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>66</v>
@@ -3058,14 +3062,14 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>66</v>
@@ -3079,14 +3083,14 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>66</v>
@@ -3100,14 +3104,14 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>66</v>
@@ -3121,14 +3125,14 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>66</v>
@@ -3142,14 +3146,14 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>66</v>
@@ -3163,14 +3167,14 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>66</v>
@@ -3184,14 +3188,14 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>66</v>
@@ -3205,14 +3209,14 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>66</v>
@@ -3226,372 +3230,382 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="3" t="s">
-        <v>70</v>
+        <v>172</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>71</v>
+        <v>173</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="13" t="s">
+      <c r="A112" s="1">
+        <v>18</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B112" s="13"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="13"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="13"/>
-    </row>
-    <row r="113" spans="1:7">
-      <c r="A113" s="1"/>
-      <c r="B113" s="2"/>
-      <c r="C113" s="3"/>
-      <c r="D113" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="E113" s="11"/>
-      <c r="F113" s="12"/>
-      <c r="G113" s="3"/>
+      <c r="B113" s="10"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="3"/>
-      <c r="D114" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="E114" s="11"/>
-      <c r="F114" s="12"/>
+      <c r="D114" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="E114" s="15"/>
+      <c r="F114" s="16"/>
       <c r="G114" s="3"/>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
       <c r="C115" s="3"/>
-      <c r="D115" s="10"/>
-      <c r="E115" s="11"/>
-      <c r="F115" s="12"/>
+      <c r="D115" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E115" s="15"/>
+      <c r="F115" s="16"/>
       <c r="G115" s="3"/>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="13" t="s">
+      <c r="A116" s="1"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="16"/>
+      <c r="G116" s="3"/>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B116" s="13"/>
-      <c r="C116" s="13"/>
-      <c r="D116" s="13"/>
-      <c r="E116" s="13"/>
-      <c r="F116" s="13"/>
-      <c r="G116" s="13"/>
-    </row>
-    <row r="117" spans="1:7" ht="16.5">
-      <c r="A117" s="1"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="3"/>
+      <c r="B117" s="10"/>
+      <c r="C117" s="10"/>
       <c r="D117" s="10"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="15"/>
-      <c r="G117" s="3"/>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="A119" s="5" t="s">
+      <c r="E117" s="10"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
+    </row>
+    <row r="118" spans="1:7" ht="16.5">
+      <c r="A118" s="1"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="13"/>
+      <c r="G118" s="3"/>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B119" s="16" t="s">
+      <c r="B120" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="C119" s="16"/>
-      <c r="D119" s="16"/>
-      <c r="E119" s="5" t="s">
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F119" s="16" t="s">
+      <c r="F120" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="G119" s="16"/>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120" s="9" t="s">
+      <c r="G120" s="14"/>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="B121" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="C120" s="9" t="s">
+      <c r="C121" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D120" s="9" t="s">
+      <c r="D121" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E120" s="9" t="s">
+      <c r="E121" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="F120" s="9" t="s">
+      <c r="F121" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="G120" s="9" t="s">
+      <c r="G121" s="9" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="A121" s="1">
-        <v>1</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G121" s="3" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="1">
-        <v>2</v>
-      </c>
-      <c r="B122" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>198</v>
+      </c>
       <c r="C122" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F122" s="3"/>
-      <c r="G122" s="3"/>
+        <v>201</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" s="3" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" s="3" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="13" t="s">
+      <c r="A126" s="1">
+        <v>5</v>
+      </c>
+      <c r="B126" s="2"/>
+      <c r="C126" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="B126" s="13"/>
-      <c r="C126" s="13"/>
-      <c r="D126" s="13"/>
-      <c r="E126" s="13"/>
-      <c r="F126" s="13"/>
-      <c r="G126" s="13"/>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="A127" s="1"/>
-      <c r="B127" s="2"/>
-      <c r="C127" s="3"/>
+      <c r="B127" s="10"/>
+      <c r="C127" s="10"/>
       <c r="D127" s="10"/>
-      <c r="E127" s="11"/>
-      <c r="F127" s="12"/>
-      <c r="G127" s="3"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
       <c r="C128" s="3"/>
-      <c r="D128" s="10"/>
-      <c r="E128" s="11"/>
-      <c r="F128" s="12"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="15"/>
+      <c r="F128" s="16"/>
       <c r="G128" s="3"/>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="13" t="s">
+      <c r="A129" s="1"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="15"/>
+      <c r="F129" s="16"/>
+      <c r="G129" s="3"/>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="B129" s="13"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="13"/>
-      <c r="E129" s="13"/>
-      <c r="F129" s="13"/>
-      <c r="G129" s="13"/>
-    </row>
-    <row r="130" spans="1:7" ht="16.5">
-      <c r="A130" s="1"/>
-      <c r="B130" s="2"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="10" t="s">
+      <c r="B130" s="10"/>
+      <c r="C130" s="10"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="10"/>
+    </row>
+    <row r="131" spans="1:7" ht="16.5">
+      <c r="A131" s="1"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="E130" s="14"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="3" t="s">
+      <c r="E131" s="12"/>
+      <c r="F131" s="13"/>
+      <c r="G131" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
-      <c r="A132" s="5" t="s">
+    <row r="133" spans="1:7">
+      <c r="A133" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B132" s="18"/>
-      <c r="C132" s="19"/>
-      <c r="D132" s="20"/>
-      <c r="E132" s="5" t="s">
+      <c r="B133" s="18"/>
+      <c r="C133" s="19"/>
+      <c r="D133" s="20"/>
+      <c r="E133" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F132" s="18"/>
-      <c r="G132" s="20"/>
-    </row>
-    <row r="133" spans="1:7">
-      <c r="A133" s="6" t="s">
+      <c r="F133" s="18"/>
+      <c r="G133" s="20"/>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B133" s="6" t="s">
+      <c r="B134" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C133" s="6" t="s">
+      <c r="C134" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D133" s="6" t="s">
+      <c r="D134" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E133" s="6" t="s">
+      <c r="E134" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F133" s="6" t="s">
+      <c r="F134" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G133" s="6" t="s">
+      <c r="G134" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="134" spans="1:7">
-      <c r="A134" s="1">
-        <v>1</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C134" s="3"/>
-      <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
-      <c r="F134" s="3"/>
-      <c r="G134" s="3"/>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="1">
-        <v>2</v>
-      </c>
-      <c r="B135" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -3600,7 +3614,7 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" s="3"/>
@@ -3611,7 +3625,7 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="3"/>
@@ -3622,7 +3636,7 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="3"/>
@@ -3633,7 +3647,7 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" s="3"/>
@@ -3644,7 +3658,7 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" s="3"/>
@@ -3655,7 +3669,7 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" s="3"/>
@@ -3665,79 +3679,83 @@
       <c r="G141" s="3"/>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="13" t="s">
+      <c r="A142" s="1">
+        <v>8</v>
+      </c>
+      <c r="B142" s="2"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
+      <c r="F142" s="3"/>
+      <c r="G142" s="3"/>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B142" s="13"/>
-      <c r="C142" s="13"/>
-      <c r="D142" s="13"/>
-      <c r="E142" s="13"/>
-      <c r="F142" s="13"/>
-      <c r="G142" s="13"/>
-    </row>
-    <row r="143" spans="1:7">
-      <c r="A143" s="1"/>
-      <c r="B143" s="2"/>
-      <c r="C143" s="3"/>
+      <c r="B143" s="10"/>
+      <c r="C143" s="10"/>
       <c r="D143" s="10"/>
-      <c r="E143" s="11"/>
-      <c r="F143" s="12"/>
-      <c r="G143" s="3"/>
+      <c r="E143" s="10"/>
+      <c r="F143" s="10"/>
+      <c r="G143" s="10"/>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
       <c r="C144" s="3"/>
-      <c r="D144" s="10"/>
-      <c r="E144" s="11"/>
-      <c r="F144" s="12"/>
+      <c r="D144" s="11"/>
+      <c r="E144" s="15"/>
+      <c r="F144" s="16"/>
       <c r="G144" s="3"/>
     </row>
     <row r="145" spans="1:7">
-      <c r="A145" s="13" t="s">
+      <c r="A145" s="1"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="15"/>
+      <c r="F145" s="16"/>
+      <c r="G145" s="3"/>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B145" s="13"/>
-      <c r="C145" s="13"/>
-      <c r="D145" s="13"/>
-      <c r="E145" s="13"/>
-      <c r="F145" s="13"/>
-      <c r="G145" s="13"/>
-    </row>
-    <row r="146" spans="1:7" ht="16.5">
-      <c r="A146" s="1"/>
-      <c r="B146" s="2"/>
-      <c r="C146" s="3"/>
+      <c r="B146" s="10"/>
+      <c r="C146" s="10"/>
       <c r="D146" s="10"/>
-      <c r="E146" s="14"/>
-      <c r="F146" s="15"/>
-      <c r="G146" s="3"/>
+      <c r="E146" s="10"/>
+      <c r="F146" s="10"/>
+      <c r="G146" s="10"/>
+    </row>
+    <row r="147" spans="1:7" ht="16.5">
+      <c r="A147" s="1"/>
+      <c r="B147" s="2"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="12"/>
+      <c r="F147" s="13"/>
+      <c r="G147" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A129:G129"/>
-    <mergeCell ref="D130:F130"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="A126:G126"/>
-    <mergeCell ref="D127:F127"/>
-    <mergeCell ref="D128:F128"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D146:F146"/>
-    <mergeCell ref="B132:D132"/>
-    <mergeCell ref="F132:G132"/>
-    <mergeCell ref="D144:F144"/>
-    <mergeCell ref="A142:G142"/>
-    <mergeCell ref="D143:F143"/>
-    <mergeCell ref="A145:G145"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="A63:G63"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="A67:G67"/>
+    <mergeCell ref="D114:F114"/>
+    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="A117:G117"/>
+    <mergeCell ref="D118:F118"/>
+    <mergeCell ref="A89:G89"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="A113:G113"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="A86:G86"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="D88:F88"/>
     <mergeCell ref="D68:F68"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:G3"/>
@@ -3753,22 +3771,29 @@
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="A31:G31"/>
     <mergeCell ref="D32:F32"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="A85:G85"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="A88:G88"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="A112:G112"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D113:F113"/>
-    <mergeCell ref="D114:F114"/>
-    <mergeCell ref="D115:F115"/>
-    <mergeCell ref="A116:G116"/>
-    <mergeCell ref="D117:F117"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D147:F147"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="F133:G133"/>
+    <mergeCell ref="D145:F145"/>
+    <mergeCell ref="A143:G143"/>
+    <mergeCell ref="D144:F144"/>
+    <mergeCell ref="A146:G146"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="A63:G63"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="A67:G67"/>
+    <mergeCell ref="A130:G130"/>
+    <mergeCell ref="D131:F131"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="A127:G127"/>
+    <mergeCell ref="D128:F128"/>
+    <mergeCell ref="D129:F129"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
